--- a/posts/proactive-cohort-study/proactive-cohort-study.xlsx
+++ b/posts/proactive-cohort-study/proactive-cohort-study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-factsheets/posts/proactive-cohort-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/n_moopen_uu_nl/Documents/Documents/programming/doy-data-inventory/posts/proactive-cohort-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D493C4D-B715-4467-9861-E251204394FD}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_AD4DB114E441178AC67DF4D4FE17F604683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887F7CFC-3F85-4E2D-9256-D1206B52017B}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="markdown" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
   <si>
     <t>PROACTIVE COHORT STUDY: DATA</t>
   </si>
@@ -446,6 +446,144 @@
   </si>
   <si>
     <t>A comparable dataset, including pediatric post oncology data, is available at the Princess Maxima Center (PMC), Utrecht, The Netherlands. The contact person is prof. dr. Martha Grootenhuis (&lt;M.A.Grootenhuis-5@umcutrecht.nl&gt;).</t>
+  </si>
+  <si>
+    <t>**Persistent Identifier**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Publication Date** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Title** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Author**  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Point of Contact** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Description** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Subject** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Keyword**  </t>
+  </si>
+  <si>
+    <t>**Related Publication**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Language** </t>
+  </si>
+  <si>
+    <t>**Production Location**</t>
+  </si>
+  <si>
+    <t>**Contributor**</t>
+  </si>
+  <si>
+    <t>**Depositor**</t>
+  </si>
+  <si>
+    <t>**Deposit Date**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Date of Collection** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Data Type** </t>
+  </si>
+  <si>
+    <t>**Software**</t>
+  </si>
+  <si>
+    <t>**Related Dataset**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Unit of Analysis** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Universe** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Time Method** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Frequency** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Sampling Procedure** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Collection Mode** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Type of Research Instrument** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Characteristics of Data Collection Situation** </t>
+  </si>
+  <si>
+    <t>**Actions to Minimize Losses**</t>
+  </si>
+  <si>
+    <t>**Cleaning Operations**</t>
+  </si>
+  <si>
+    <t>**Response Rate**</t>
+  </si>
+  <si>
+    <t>**Design Type**</t>
+  </si>
+  <si>
+    <t>**Factor Type**</t>
+  </si>
+  <si>
+    <t>**Organism**</t>
+  </si>
+  <si>
+    <t>**DV PID**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**DV PID Version** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Bag ID** </t>
+  </si>
+  <si>
+    <t>**NBN**</t>
+  </si>
+  <si>
+    <t>**License/Data Use Agreement**</t>
+  </si>
+  <si>
+    <t>**Terms of Use**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Confidentiality Declaration** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Special Permissions** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Restrictions** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Citation Requirements** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Conditions** </t>
+  </si>
+  <si>
+    <t>**Data Access Place**</t>
+  </si>
+  <si>
+    <t>**Availability Status**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Study Completion** </t>
   </si>
 </sst>
 </file>
@@ -526,10 +664,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -551,10 +689,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3DBDAA-11CF-43DF-9889-762BA2530C67}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +980,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>116</v>
@@ -854,15 +988,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
+      <c r="A5" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -870,7 +1004,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>128</v>
@@ -890,7 +1024,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>117</v>
@@ -909,16 +1043,16 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
+      <c r="A12" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
+      <c r="A13" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -926,7 +1060,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
         <v>120</v>
@@ -958,7 +1092,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>123</v>
@@ -983,16 +1117,16 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>34</v>
+      <c r="A23" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>36</v>
+      <c r="A24" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -1000,7 +1134,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
@@ -1038,7 +1172,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>46</v>
@@ -1046,31 +1180,31 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>48</v>
+      <c r="A33" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>50</v>
+      <c r="A34" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>52</v>
+      <c r="A35" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>53</v>
@@ -1078,7 +1212,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>139</v>
@@ -1092,7 +1226,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>58</v>
@@ -1100,7 +1234,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>60</v>
@@ -1108,7 +1242,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>62</v>
@@ -1116,7 +1250,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>64</v>
@@ -1124,7 +1258,7 @@
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>66</v>
@@ -1132,7 +1266,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>127</v>
@@ -1140,7 +1274,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>70</v>
@@ -1148,7 +1282,7 @@
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>72</v>
@@ -1156,7 +1290,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>74</v>
@@ -1164,7 +1298,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>76</v>
@@ -1172,7 +1306,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>78</v>
@@ -1186,7 +1320,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>81</v>
@@ -1194,7 +1328,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>83</v>
@@ -1202,7 +1336,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>85</v>
@@ -1216,7 +1350,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>3</v>
@@ -1224,7 +1358,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>89</v>
@@ -1232,7 +1366,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>91</v>
@@ -1240,7 +1374,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>93</v>
@@ -1254,7 +1388,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>96</v>
@@ -1262,7 +1396,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>98</v>
@@ -1270,7 +1404,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>100</v>
@@ -1278,7 +1412,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>102</v>
@@ -1286,7 +1420,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>104</v>
@@ -1294,7 +1428,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>106</v>
@@ -1302,7 +1436,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>108</v>
@@ -1316,7 +1450,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>111</v>
@@ -1324,7 +1458,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>113</v>
@@ -1332,7 +1466,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>115</v>
